--- a/electronics/BOM.xlsx
+++ b/electronics/BOM.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
   <si>
     <t xml:space="preserve">Rhoban DXLBoard
 BOM</t>
@@ -160,23 +160,7 @@
     <t xml:space="preserve">SMD</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Farnell : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2074431</t>
-    </r>
+    <t xml:space="preserve">Farnell : 2074431</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -194,23 +178,7 @@
     <t xml:space="preserve">Resistor 22 Ohms</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Farnell : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2446926</t>
-    </r>
+    <t xml:space="preserve">Farnell : 2446926</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
@@ -225,23 +193,7 @@
     <t xml:space="preserve">Resistor 1.5K</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Farnell : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2447592</t>
-    </r>
+    <t xml:space="preserve">Farnell : 2447592</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -256,23 +208,7 @@
     <t xml:space="preserve">Resistor 2K</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Farnell : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2447622</t>
-    </r>
+    <t xml:space="preserve">Farnell : 2447622</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -287,23 +223,7 @@
     <t xml:space="preserve">Resistor 10K</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Farnell : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2074334RL</t>
-    </r>
+    <t xml:space="preserve">Farnell : 2074334RL</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
@@ -318,23 +238,7 @@
     <t xml:space="preserve">Resistor 1K</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Farnell : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2074332RL</t>
-    </r>
+    <t xml:space="preserve">Farnell : 2074332RL</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
@@ -373,23 +277,10 @@
     <t xml:space="preserve">Thru-Hole</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Farnell : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1144619</t>
-    </r>
+    <t xml:space="preserve">Farnell : 1144619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
   </si>
   <si>
     <t xml:space="preserve">D1</t>
@@ -410,7 +301,7 @@
     <t xml:space="preserve">Farnell : 8737843RL</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
+    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">485-1, 485-2, 485-3</t>
@@ -428,26 +319,10 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Farnell : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1104204</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
+    <t xml:space="preserve">Farnell : 1104204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
   </si>
   <si>
     <t xml:space="preserve">TTL1, TTL2, TTL3</t>
@@ -459,26 +334,10 @@
     <t xml:space="preserve">Connector 3 pins</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Farnell : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">9979620</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
+    <t xml:space="preserve">Farnell : 9979620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
   </si>
   <si>
     <t xml:space="preserve">MAX1, MAX2, MAX485</t>
@@ -499,7 +358,7 @@
     <t xml:space="preserve">Farnell : 1564306</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
+    <t xml:space="preserve">13</t>
   </si>
   <si>
     <t xml:space="preserve">U$6</t>
@@ -511,26 +370,10 @@
     <t xml:space="preserve">0.1’’ female header, 8 pins</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Farnell : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1593463</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
+    <t xml:space="preserve">Farnell : 1593463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">MAPLE</t>
@@ -542,23 +385,7 @@
     <t xml:space="preserve">0.1’’ female header, 20 pins</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Farnell : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1593469</t>
-    </r>
+    <t xml:space="preserve">Farnell : 1593469</t>
   </si>
   <si>
     <t xml:space="preserve">Click for Instructions on How to Create a BOM</t>
@@ -572,7 +399,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -639,11 +466,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -706,11 +528,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -756,23 +578,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -795,7 +601,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -879,11 +685,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>9360</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>664560</xdr:colOff>
+      <xdr:colOff>664200</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
@@ -898,8 +704,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9360" y="204840"/>
-          <a:ext cx="1328760" cy="374040"/>
+          <a:off x="9360" y="205200"/>
+          <a:ext cx="1328400" cy="373680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -922,7 +728,7 @@
   <dimension ref="A2:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -989,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -1019,724 +825,726 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="E15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="F15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="G15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="15" t="s">
-        <v>63</v>
+      <c r="I15" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="E16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="F16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="G16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="H17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="15" t="s">
+      <c r="D18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="I19" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="15" t="s">
+      <c r="E20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>92</v>
+      <c r="I20" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="21" t="s">
-        <v>93</v>
+      <c r="A55" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/electronics/BOM.xlsx
+++ b/electronics/BOM.xlsx
@@ -689,9 +689,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>664200</xdr:colOff>
+      <xdr:colOff>663840</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -705,7 +705,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="205200"/>
-          <a:ext cx="1328400" cy="373680"/>
+          <a:ext cx="1454400" cy="373320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -728,7 +728,7 @@
   <dimension ref="A2:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -741,7 +741,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="35.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="35.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="9"/>
   </cols>
   <sheetData>
@@ -861,7 +861,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>13</v>
@@ -1580,7 +1580,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.64"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1606,7 +1606,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.64"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
